--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -109,22 +109,22 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>hand</t>
@@ -1298,13 +1298,13 @@
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7030567685589519</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>0.9399999999999999</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1348,25 +1348,25 @@
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1448,25 +1448,25 @@
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.6109422492401215</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L15">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1474,25 +1474,25 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.6031746031746031</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1500,25 +1500,25 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="10:17">
